--- a/biology/Botanique/Forsythia/Forsythia.xlsx
+++ b/biology/Botanique/Forsythia/Forsythia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Forsythia (prononcé en français [fɔʁ.si.sja]) est un genre d'arbustes rustiques de la famille des Oleaceae[2], reconnus en général par leur abondante floraison ornementale jaune d'or, qui se produit parmi les premières de l'année en fin d'hiver et début de printemps de l'hémisphère nord. Leur limbe est dit composé de plusieurs folioles, ovale, doublement denté et alterne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Forsythia (prononcé en français [fɔʁ.si.sja]) est un genre d'arbustes rustiques de la famille des Oleaceae, reconnus en général par leur abondante floraison ornementale jaune d'or, qui se produit parmi les premières de l'année en fin d'hiver et début de printemps de l'hémisphère nord. Leur limbe est dit composé de plusieurs folioles, ovale, doublement denté et alterne.
 Le genre compte une dizaine d'espèces, essentiellement d'Asie orientale tempérée (Chine orientale, Corée, Japon). Une espèce sans usage horticole est originaire d'Albanie.
-Martin Vahl, professeur de botanique à Copenhague, a découvert ce genre début 1804, à partir des travaux d'observation de la flore japonaise du naturaliste suédois Carl Peter Thunberg[Note 1],[3]. Il le nomme en l'honneur du botaniste, horticulteur et arboriculteur  William Forsyth, surintendant des jardins de Sa Majesté britannique, un des cofondateurs de la Royal Horticultural Society. William Forsyth et Martin Vahl sont tous deux décédés cette même année 1804, et le nom du genre a été publié en 1805 à titre posthume.
-Le premier plant vivant de Forsythia suspensa, originaire des jardins du Japon, aurait été introduit aux Pays-Bas par Verkerk Pistorius en 1833[Note 2],[4]. La culture de cet arbuste décoratif à port rampant, réintroduit et répandu par les pépinières Veitch en Angleterre, aurait permis de former les premiers hybrides.
+Martin Vahl, professeur de botanique à Copenhague, a découvert ce genre début 1804, à partir des travaux d'observation de la flore japonaise du naturaliste suédois Carl Peter Thunberg[Note 1],. Il le nomme en l'honneur du botaniste, horticulteur et arboriculteur  William Forsyth, surintendant des jardins de Sa Majesté britannique, un des cofondateurs de la Royal Horticultural Society. William Forsyth et Martin Vahl sont tous deux décédés cette même année 1804, et le nom du genre a été publié en 1805 à titre posthume.
+Le premier plant vivant de Forsythia suspensa, originaire des jardins du Japon, aurait été introduit aux Pays-Bas par Verkerk Pistorius en 1833[Note 2],. La culture de cet arbuste décoratif à port rampant, réintroduit et répandu par les pépinières Veitch en Angleterre, aurait permis de former les premiers hybrides.
 Les Forsythia sont les hôtes de chenilles de quelques lépidoptères dont Euproctis chrysorrhoea et Naenia typica.
 </t>
         </is>
@@ -515,7 +527,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Forsythia europaea Degen &amp; Bald. Balkans en Albanie et Kosovo.
 Forsythia giraldiana Lingelsh. Nord-ouest de la Chine.
@@ -530,12 +544,12 @@
 Forsythia viridissima Lindley. Est de la Chine.
 Forsythia ×intermedia - Forsythia de Paris.
 Sources : Université d'Oxford (« Forsythia », sur Oleaceae information).
-Une étude génétique[5] n'a pas tout à fait confirmé la classification traditionnellement acceptée (ci-dessus) et a groupé les espèces en 4 clades :
+Une étude génétique n'a pas tout à fait confirmé la classification traditionnellement acceptée (ci-dessus) et a groupé les espèces en 4 clades :
 F. suspensa.
 F. europaea — F. giraldiana.
 F. ovata — F. japonica — F. viridissima.
 F. koreana — F. mandschurica — F. saxatilis.
-F. koreana est souvent cité comme variété de  F. viridissima, et F. saxatilis comme variété de F. japonica[6] mais des indices génétiques suggèrent qu'il s'agirait d'espèces distinctes.
+F. koreana est souvent cité comme variété de  F. viridissima, et F. saxatilis comme variété de F. japonica mais des indices génétiques suggèrent qu'il s'agirait d'espèces distinctes.
 </t>
         </is>
       </c>
@@ -564,7 +578,9 @@
           <t>Histoire et description de l'arbuste décoratif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le (genre) forsythia, arbuste décoratif des jardins urbains ou des zones pavillonnaires de la fin du XXe siècle en Europe occidentale, provient d'hybridation de plantes originaires de Chine et des jardins du Japon, voire de Corée ou de Mandchourie. Ces plants d'arbrisseaux à feuilles caduques et à fleurs jaunes, atteignant deux à quatre mètres de hauteur, parfois moins, ont été acclimatés dans les jardins botaniques européens au début du XIXe siècle.
 Les rameaux se couvrent de fleurs jaunes hétérostylées qui sortent avant les feuilles. Cette longue floraison dont la couleur est influencée par les caroténoïdes accessoires des chromoplastes se place très tôt dans l'année, parfois en février à Paris, le plus souvent en mars, en tous les cas quelques semaines avant l'apparition printanière des feuilles des arbustes ou arbres dans les espaces jardinés où il est présent. Le forsythia dont les fleurs jaunes très nombreuses persistent jusqu'en avril est bien souvent le premier arbuste fleuri de l'année dans les jardins particuliers du Nord-Est de la France. Les feuilles caduques, vert sombre, sont en forme de fer de lance.
@@ -600,11 +616,48 @@
           <t>Présentation horticole d'un forsythia hybride</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbuste représenté est un hybride de Forsythia suspensa (Thunb.) Vahl et de Forsythia viridissima Lindl.
-Principales caractéristiques
-Période de floraison : mars à mai.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forsythia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forsythia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Présentation horticole d'un forsythia hybride</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Principales caractéristiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Période de floraison : mars à mai.
 Couleur des fleurs : jaune.
 Exposition : plein soleil ou ombre légère.
 Type de sol : sol peu fertile frais et bien drainé.
@@ -614,42 +667,7 @@
 Plantation : printemps ou automne.
 Rusticité : excellente.
 Multiplication : par bouture de tiges ligneuses.
-Ennemis et maladie : galle du forsythia et pourridié.
-Culture
-Tailler juste après la floraison, que ce soit pour rajeunir une touffe âgée, ou pour provoquer des ramifications et assurer un développement harmonieux. Rabattez sévèrement votre forsythia après sa floraison. Rajeunissez-le et aérez-le en supprimant les plus vieilles branches.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Forsythia</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Forsythia</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Taille horticole</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il faut noter que les « arbustes à port souple », cultivars ou hybrides, proches sur ce point des variétés de Forsythia suspensa, n'appellent aucune consigne de taille régulière des rameaux suffisamment âgés (en particulier au-delà de trois années). Une taille sélective éventuellement après la floraison qui se clôt normalement fin avril suit d'abord un dessein esthétique d'ensemble.
-Des galles verruqueuses déforment parfois les tiges. Elles sont dues à des bactéries associées à des champignons : on cite les bactéries Corynebacterium fascians et Agrobacterium tumefaciens[7] et les champignons Gibberalla baccata et Phomopsis dominici[8]. Il faut alors rabattre les tiges atteintes jusqu'au bois sain et brûler les déchets de taille.
-</t>
+Ennemis et maladie : galle du forsythia et pourridié.</t>
         </is>
       </c>
     </row>
@@ -674,10 +692,83 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Présentation horticole d'un forsythia hybride</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tailler juste après la floraison, que ce soit pour rajeunir une touffe âgée, ou pour provoquer des ramifications et assurer un développement harmonieux. Rabattez sévèrement votre forsythia après sa floraison. Rajeunissez-le et aérez-le en supprimant les plus vieilles branches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forsythia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forsythia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taille horticole</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il faut noter que les « arbustes à port souple », cultivars ou hybrides, proches sur ce point des variétés de Forsythia suspensa, n'appellent aucune consigne de taille régulière des rameaux suffisamment âgés (en particulier au-delà de trois années). Une taille sélective éventuellement après la floraison qui se clôt normalement fin avril suit d'abord un dessein esthétique d'ensemble.
+Des galles verruqueuses déforment parfois les tiges. Elles sont dues à des bactéries associées à des champignons : on cite les bactéries Corynebacterium fascians et Agrobacterium tumefaciens et les champignons Gibberalla baccata et Phomopsis dominici. Il faut alors rabattre les tiges atteintes jusqu'au bois sain et brûler les déchets de taille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forsythia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forsythia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En Corée, le forsythia est utilisé pour fabriquer les archets des ajaengs, un instrument à cordes de la musique traditionnelle coréenne :  une branche de forsythia est pelée puis durcie avec de la résine de pin. Elle sera ensuite frottée sur les cordes à la manière d'un archet[réf. nécessaire].
 </t>
